--- a/Checklists/Mobile_App_Security_Checklist-Japanese.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouki.takeyama\Desktop\owasp-mstg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1329C24A-943D-41AC-95EC-FAEC1586A63F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2406FF12-AF7D-48BC-8CEC-981FC0A6EDAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,9 +436,6 @@
     <t>0.8.1</t>
   </si>
   <si>
-    <t xml:space="preserve">After consultation with &lt;Customer&gt; it was decided that only Level 1 requrirements are applicable to &lt;AppName&gt;. </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -545,16 +542,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>顧客名</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>テスト場所</t>
     <rPh sb="3" eb="5">
       <t>バショ</t>
@@ -1621,6 +1608,68 @@
   </si>
   <si>
     <t>Japanese Translation</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>顧客企業名</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;顧客企業名&gt;との協議の結果、レベル1の要件のみを&lt;アプリ名&gt;に適用することに決定した。
+レベル1：標準セキュリティ
+レベル2：多層防御
+レベルR：リバースエンジニアリングに対する耐性</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>タソウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>タイセイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2526,13 +2575,31 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2566,24 +2633,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3752,307 +3801,305 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="64" t="s">
+      <c r="C13" s="68"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="62" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="62" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="62" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="62" t="s">
+    </row>
+    <row r="17" spans="2:4" ht="66" x14ac:dyDescent="0.45">
+      <c r="B17" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="5" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="62" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="63"/>
+      <c r="B28" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="68"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="63"/>
+      <c r="B29" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="68"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="63"/>
+      <c r="B30" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="68"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="63"/>
+      <c r="B31" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="68"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="64" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B37" s="64" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B38" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B39" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B40" s="78"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="63"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B42" s="64" t="s">
+      <c r="C43" s="63"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B43" s="64" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B44" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B45" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="81"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B34:D34"/>
@@ -4067,14 +4114,16 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4107,7 +4156,7 @@
     <row r="2" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -4141,12 +4190,12 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="83"/>
       <c r="I6" s="84"/>
       <c r="V6" s="82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="W6" s="83"/>
       <c r="X6" s="84"/>
@@ -4319,25 +4368,25 @@
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.45">
       <c r="D42" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>70</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>70</v>
@@ -4345,7 +4394,7 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C43" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D43" s="17">
         <f>COUNTIF('Security Requirements - Android'!$F$5:$F$14,'Management Summary'!D42)</f>
@@ -4382,7 +4431,7 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C44" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D44" s="17">
         <f>COUNTIF('Security Requirements - Android'!$F$16:$F$27,'Management Summary'!D42)</f>
@@ -4419,7 +4468,7 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C45" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D45" s="17">
         <f>COUNTIF('Security Requirements - Android'!$F$29:$F$34,'Management Summary'!D42)</f>
@@ -4456,7 +4505,7 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C46" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D46" s="17">
         <f>COUNTIF('Security Requirements - Android'!$F$36:$F$46,'Management Summary'!D42)</f>
@@ -4493,7 +4542,7 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C47" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D47" s="17">
         <f>COUNTIF('Security Requirements - Android'!$F$48:$F$53,'Management Summary'!D42)</f>
@@ -4530,7 +4579,7 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C48" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D48" s="17">
         <f>COUNTIF('Security Requirements - Android'!$F$55:$F$62,'Management Summary'!D42)</f>
@@ -4567,7 +4616,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C49" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D49" s="17">
         <f>COUNTIF('Security Requirements - Android'!$F$64:$F$72,'Management Summary'!D42)</f>
@@ -4604,7 +4653,7 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C50" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D50" s="17">
         <f>COUNTIF('Anti-RE - Android'!$E$5:$E$18,'Management Summary'!D42)</f>
@@ -4680,7 +4729,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B1" s="97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="97"/>
       <c r="D1" s="97"/>
@@ -4694,22 +4743,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>196</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
@@ -4717,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -4730,7 +4779,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>3</v>
@@ -4749,7 +4798,7 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>3</v>
@@ -4768,7 +4817,7 @@
         <v>1.3</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>3</v>
@@ -4787,7 +4836,7 @@
         <v>1.4</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>3</v>
@@ -4806,7 +4855,7 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="40" t="s">
@@ -4825,7 +4874,7 @@
         <v>1.6</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="40" t="s">
@@ -4844,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="40" t="s">
@@ -4863,7 +4912,7 @@
         <v>1.8</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="40" t="s">
@@ -4882,7 +4931,7 @@
         <v>1.9</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="40" t="s">
@@ -4901,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="40" t="s">
@@ -4920,7 +4969,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="47"/>
@@ -4933,7 +4982,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>3</v>
@@ -4952,7 +5001,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
@@ -4967,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>3</v>
@@ -4986,7 +5035,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>3</v>
@@ -5005,7 +5054,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>3</v>
@@ -5024,7 +5073,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>3</v>
@@ -5043,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>3</v>
@@ -5062,7 +5111,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="40" t="s">
@@ -5081,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="40" t="s">
@@ -5100,7 +5149,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="40" t="s">
@@ -5119,7 +5168,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="40" t="s">
@@ -5138,7 +5187,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="40" t="s">
@@ -5155,7 +5204,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="47"/>
@@ -5168,7 +5217,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>3</v>
@@ -5187,7 +5236,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>3</v>
@@ -5206,7 +5255,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>3</v>
@@ -5225,7 +5274,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>3</v>
@@ -5244,7 +5293,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>3</v>
@@ -5263,7 +5312,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>3</v>
@@ -5282,7 +5331,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="47"/>
@@ -5295,7 +5344,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>3</v>
@@ -5314,7 +5363,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>3</v>
@@ -5333,7 +5382,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>3</v>
@@ -5343,7 +5392,7 @@
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H38" s="43"/>
       <c r="J38" s="49"/>
@@ -5353,7 +5402,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="40"/>
@@ -5369,7 +5418,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>3</v>
@@ -5388,7 +5437,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>3</v>
@@ -5407,7 +5456,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>3</v>
@@ -5426,7 +5475,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D43" s="38"/>
       <c r="E43" s="40" t="s">
@@ -5445,7 +5494,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="40" t="s">
@@ -5464,7 +5513,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="40" t="s">
@@ -5480,10 +5529,10 @@
     </row>
     <row r="46" spans="2:10" ht="37.5" x14ac:dyDescent="0.45">
       <c r="B46" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="40" t="s">
@@ -5500,7 +5549,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D47" s="46"/>
       <c r="E47" s="47"/>
@@ -5513,7 +5562,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>3</v>
@@ -5532,7 +5581,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>3</v>
@@ -5551,7 +5600,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>3</v>
@@ -5570,7 +5619,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D51" s="38"/>
       <c r="E51" s="40" t="s">
@@ -5589,7 +5638,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="40" t="s">
@@ -5608,7 +5657,7 @@
         <v>5.6</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D53" s="38"/>
       <c r="E53" s="40" t="s">
@@ -5618,7 +5667,7 @@
         <v>64</v>
       </c>
       <c r="G53" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H53" s="43"/>
     </row>
@@ -5627,7 +5676,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="47"/>
@@ -5640,7 +5689,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>3</v>
@@ -5659,7 +5708,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>3</v>
@@ -5678,7 +5727,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>3</v>
@@ -5697,7 +5746,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>3</v>
@@ -5716,7 +5765,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>3</v>
@@ -5735,7 +5784,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>3</v>
@@ -5754,7 +5803,7 @@
         <v>6.7</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>3</v>
@@ -5773,7 +5822,7 @@
         <v>6.8</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>3</v>
@@ -5792,7 +5841,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D63" s="46"/>
       <c r="E63" s="47"/>
@@ -5805,7 +5854,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>3</v>
@@ -5824,7 +5873,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>3</v>
@@ -5843,7 +5892,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>3</v>
@@ -5862,7 +5911,7 @@
         <v>58</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>3</v>
@@ -5881,7 +5930,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>3</v>
@@ -5898,7 +5947,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>3</v>
@@ -5917,7 +5966,7 @@
         <v>36</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>3</v>
@@ -5936,7 +5985,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>3</v>
@@ -5952,10 +6001,10 @@
     </row>
     <row r="72" spans="2:8" ht="37.5" x14ac:dyDescent="0.45">
       <c r="B72" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>3</v>
@@ -5965,7 +6014,7 @@
       </c>
       <c r="F72" s="41"/>
       <c r="G72" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H72" s="43"/>
     </row>
@@ -6007,7 +6056,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B77" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="54"/>
@@ -6018,10 +6067,10 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B78" s="57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C78" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D78" s="54"/>
       <c r="E78" s="54"/>
@@ -6034,7 +6083,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D79" s="54"/>
       <c r="E79" s="54"/>
@@ -6047,7 +6096,7 @@
         <v>69</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D80" s="54"/>
       <c r="E80" s="54"/>
@@ -6060,7 +6109,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
@@ -6200,7 +6249,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B1" s="60" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="54"/>
       <c r="D1" s="54"/>
@@ -6219,25 +6268,25 @@
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="C3" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="45"/>
       <c r="C4" s="46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -6249,7 +6298,7 @@
         <v>8.1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>3</v>
@@ -6258,7 +6307,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="43"/>
     </row>
@@ -6267,7 +6316,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" s="61" t="s">
         <v>3</v>
@@ -6285,7 +6334,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>3</v>
@@ -6303,7 +6352,7 @@
         <v>8.4</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>3</v>
@@ -6321,7 +6370,7 @@
         <v>8.5</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>3</v>
@@ -6339,7 +6388,7 @@
         <v>8.6</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>3</v>
@@ -6348,7 +6397,7 @@
         <v>64</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" s="43"/>
     </row>
@@ -6357,7 +6406,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>3</v>
@@ -6373,7 +6422,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>3</v>
@@ -6389,7 +6438,7 @@
         <v>8.9</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>3</v>
@@ -6405,7 +6454,7 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -6417,7 +6466,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>3</v>
@@ -6433,7 +6482,7 @@
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="45"/>
       <c r="C16" s="46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -6445,7 +6494,7 @@
         <v>8.11</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>3</v>
@@ -6461,7 +6510,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>3</v>
@@ -6498,7 +6547,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="54"/>
@@ -6508,10 +6557,10 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
@@ -6523,7 +6572,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
@@ -6535,7 +6584,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
@@ -6547,7 +6596,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -6625,7 +6674,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B1" s="60" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
@@ -6633,22 +6682,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F3" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>196</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
@@ -6656,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -6669,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>3</v>
@@ -6688,7 +6737,7 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>3</v>
@@ -6707,7 +6756,7 @@
         <v>1.3</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>3</v>
@@ -6726,7 +6775,7 @@
         <v>1.4</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>3</v>
@@ -6745,7 +6794,7 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="40" t="s">
@@ -6764,7 +6813,7 @@
         <v>1.6</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="40" t="s">
@@ -6783,7 +6832,7 @@
         <v>1.7</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="40" t="s">
@@ -6802,7 +6851,7 @@
         <v>1.8</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="40" t="s">
@@ -6821,7 +6870,7 @@
         <v>1.9</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="40" t="s">
@@ -6840,7 +6889,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="40" t="s">
@@ -6859,7 +6908,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="47"/>
@@ -6872,7 +6921,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>3</v>
@@ -6891,7 +6940,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
@@ -6906,7 +6955,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>3</v>
@@ -6925,7 +6974,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>3</v>
@@ -6944,7 +6993,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>3</v>
@@ -6963,7 +7012,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>3</v>
@@ -6982,7 +7031,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>3</v>
@@ -7003,7 +7052,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="40" t="s">
@@ -7022,7 +7071,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="40" t="s">
@@ -7041,7 +7090,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="40" t="s">
@@ -7060,7 +7109,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="40" t="s">
@@ -7075,7 +7124,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="40" t="s">
@@ -7092,7 +7141,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="47"/>
@@ -7105,7 +7154,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>3</v>
@@ -7124,7 +7173,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>3</v>
@@ -7143,7 +7192,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>3</v>
@@ -7162,7 +7211,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>3</v>
@@ -7181,7 +7230,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>3</v>
@@ -7200,7 +7249,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>3</v>
@@ -7219,7 +7268,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="47"/>
@@ -7232,7 +7281,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>3</v>
@@ -7251,7 +7300,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>3</v>
@@ -7270,7 +7319,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>3</v>
@@ -7280,7 +7329,7 @@
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H38" s="43"/>
     </row>
@@ -7289,7 +7338,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="40"/>
@@ -7305,7 +7354,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>3</v>
@@ -7325,7 +7374,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>3</v>
@@ -7344,7 +7393,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>3</v>
@@ -7363,7 +7412,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D43" s="38"/>
       <c r="E43" s="40" t="s">
@@ -7382,7 +7431,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="40" t="s">
@@ -7401,7 +7450,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="40" t="s">
@@ -7417,10 +7466,10 @@
     </row>
     <row r="46" spans="2:10" ht="37.5" x14ac:dyDescent="0.45">
       <c r="B46" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="40" t="s">
@@ -7437,7 +7486,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D47" s="46"/>
       <c r="E47" s="47"/>
@@ -7450,7 +7499,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>3</v>
@@ -7469,7 +7518,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>3</v>
@@ -7488,7 +7537,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>3</v>
@@ -7507,7 +7556,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D51" s="38"/>
       <c r="E51" s="40" t="s">
@@ -7526,7 +7575,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="40" t="s">
@@ -7545,7 +7594,7 @@
         <v>5.6</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D53" s="38"/>
       <c r="E53" s="40" t="s">
@@ -7562,7 +7611,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="47"/>
@@ -7575,7 +7624,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>3</v>
@@ -7592,7 +7641,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>3</v>
@@ -7611,7 +7660,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>3</v>
@@ -7630,7 +7679,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>3</v>
@@ -7647,7 +7696,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>3</v>
@@ -7666,7 +7715,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>3</v>
@@ -7683,7 +7732,7 @@
         <v>6.7</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>3</v>
@@ -7700,7 +7749,7 @@
         <v>6.8</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>3</v>
@@ -7717,7 +7766,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D63" s="46"/>
       <c r="E63" s="47"/>
@@ -7730,7 +7779,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>3</v>
@@ -7749,7 +7798,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>3</v>
@@ -7766,7 +7815,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>3</v>
@@ -7785,7 +7834,7 @@
         <v>58</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>3</v>
@@ -7804,7 +7853,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>3</v>
@@ -7821,7 +7870,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>3</v>
@@ -7840,7 +7889,7 @@
         <v>36</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>3</v>
@@ -7859,7 +7908,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>3</v>
@@ -7873,10 +7922,10 @@
     </row>
     <row r="72" spans="2:8" ht="37.5" x14ac:dyDescent="0.45">
       <c r="B72" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>3</v>
@@ -7928,7 +7977,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B77" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="54"/>
@@ -7939,10 +7988,10 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B78" s="57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C78" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D78" s="54"/>
       <c r="E78" s="54"/>
@@ -7955,7 +8004,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D79" s="54"/>
       <c r="E79" s="54"/>
@@ -7968,7 +8017,7 @@
         <v>69</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D80" s="54"/>
       <c r="E80" s="54"/>
@@ -7981,7 +8030,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
@@ -8109,7 +8158,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B1" s="60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G1" s="54"/>
     </row>
@@ -8119,25 +8168,25 @@
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="C3" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>196</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="45"/>
       <c r="C4" s="46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -8149,7 +8198,7 @@
         <v>8.1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>3</v>
@@ -8167,7 +8216,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" s="61" t="s">
         <v>3</v>
@@ -8185,7 +8234,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>3</v>
@@ -8203,7 +8252,7 @@
         <v>8.4</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>3</v>
@@ -8219,7 +8268,7 @@
         <v>8.5</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>3</v>
@@ -8235,7 +8284,7 @@
         <v>8.6</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>3</v>
@@ -8251,7 +8300,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>3</v>
@@ -8267,7 +8316,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>3</v>
@@ -8280,10 +8329,10 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>3</v>
@@ -8297,7 +8346,7 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -8309,7 +8358,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>3</v>
@@ -8325,7 +8374,7 @@
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="45"/>
       <c r="C16" s="46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -8337,7 +8386,7 @@
         <v>8.11</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>3</v>
@@ -8353,7 +8402,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>3</v>
@@ -8388,7 +8437,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="54"/>
@@ -8397,10 +8446,10 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
@@ -8411,7 +8460,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
@@ -8422,7 +8471,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
@@ -8433,7 +8482,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -8521,13 +8570,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>67</v>
@@ -8544,7 +8593,7 @@
         <v>42765</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -8558,7 +8607,7 @@
         <v>42766</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -8572,7 +8621,7 @@
         <v>42778</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -8586,7 +8635,7 @@
         <v>42780</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -8594,13 +8643,13 @@
         <v>63</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="24">
         <v>42781</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -8608,13 +8657,13 @@
         <v>74</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="24">
         <v>42829</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8622,13 +8671,13 @@
         <v>63</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="24">
         <v>42919</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -8636,13 +8685,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="24">
         <v>42963</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -8650,13 +8699,13 @@
         <v>63</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="24">
         <v>43113</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -8670,21 +8719,21 @@
         <v>43289</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" s="24">
         <v>43402</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
